--- a/CSV-Reconcile_Process/Examples/Biotech/Reconciled/Final_Reconciliation.xlsx
+++ b/CSV-Reconcile_Process/Examples/Biotech/Reconciled/Final_Reconciliation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Examples/Biotech/Reconciled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E97076-2BCD-F84C-B8EA-3FCB3E051D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E510C29-0105-B344-A5E9-1D0E7F5EE316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,11 +1203,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218E5050-0CAE-D242-9858-33D398B28847}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2705,12 +2710,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9C32A5-3733-E84D-832A-D461D749FEE4}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
     <col min="2" max="2" width="40.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
